--- a/Documents/Deliverable drafts_&_templates/Deliverable 4/Six_Guys_Deliverable_4_Artifacts/SixGuys_Deliverable_4_SprintBackLog_6.xlsx
+++ b/Documents/Deliverable drafts_&_templates/Deliverable 4/Six_Guys_Deliverable_4_Artifacts/SixGuys_Deliverable_4_SprintBackLog_6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Project-Burger\Documents\Deliverable drafts_&amp;_templates\Deliverable 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Project-Burger\Documents\Deliverable drafts_&amp;_templates\Deliverable 4\Six_Guys_Deliverable_4_Artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A51F06A-A2BF-4413-939D-A8F58FC5BA18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14A1037-C44D-4073-9805-2A36A37C9AB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1835,7 +1835,7 @@
   <dimension ref="A1:AMJ53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
